--- a/editions/4Q266/457_1926_Frg_1_a/457_1927.xlsx
+++ b/editions/4Q266/457_1926_Frg_1_a/457_1927.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Tucker-James/github/SQE-Damascus/Digital_Editions/4Q266/457_1239_Frg_1_a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Tucker-James/github/SQE-Damascus/editions/4Q266/457_1926_Frg_1_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ECC8E7-0CE2-F440-87C8-AF217B4850CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEAFF80-9445-734C-88AB-52B3F7015AC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="21860" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8920" windowWidth="34440" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHARs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="263">
   <si>
     <t>id</t>
   </si>
@@ -812,31 +812,10 @@
     <t>02_Frg_1_a_א_ROI.tif:00002-03456-02065:2</t>
   </si>
   <si>
-    <t>1733.19</t>
-  </si>
-  <si>
-    <t>0.779</t>
-  </si>
-  <si>
-    <t>0.831</t>
-  </si>
-  <si>
     <t>02_Frg_1_a_א_ROI.tif:00002-03277-02882:2</t>
   </si>
   <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>0.474</t>
-  </si>
-  <si>
     <t>02_Frg_1_a_א_ROI.tif:00002-08267-02575:2</t>
-  </si>
-  <si>
-    <t>0.778</t>
-  </si>
-  <si>
-    <t>0.826</t>
   </si>
   <si>
     <t>frag_id</t>
@@ -893,15 +872,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,10 +1218,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8816,8 +8792,8 @@
   <dimension ref="A1:R168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13519,13 +13495,13 @@
         <v>250</v>
       </c>
       <c r="P94" s="2">
-        <v>1014</v>
+        <v>1.014</v>
       </c>
       <c r="Q94" t="s">
         <v>251</v>
       </c>
       <c r="R94" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -17032,212 +17008,200 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
         <v>233</v>
       </c>
-      <c r="C165">
+      <c r="E165">
         <v>504</v>
       </c>
-      <c r="D165" s="2">
-        <v>46292</v>
-      </c>
-      <c r="E165">
+      <c r="F165" s="2">
+        <v>46.292000000000002</v>
+      </c>
+      <c r="G165">
         <v>25</v>
       </c>
-      <c r="F165">
+      <c r="H165">
         <v>75</v>
       </c>
-      <c r="G165">
+      <c r="I165">
         <v>2162</v>
       </c>
-      <c r="H165">
+      <c r="J165">
         <v>6473</v>
       </c>
-      <c r="I165">
+      <c r="K165">
         <v>24</v>
       </c>
-      <c r="J165">
+      <c r="L165">
         <v>21</v>
       </c>
-      <c r="K165" s="2">
-        <v>27081</v>
-      </c>
-      <c r="L165" s="2">
-        <v>23696</v>
-      </c>
-      <c r="M165">
-        <v>0</v>
-      </c>
-      <c r="N165" t="s">
+      <c r="M165" s="2">
+        <v>27.081</v>
+      </c>
+      <c r="N165" s="2">
+        <v>23.696000000000002</v>
+      </c>
+      <c r="O165" t="s">
         <v>234</v>
       </c>
-      <c r="O165" s="2">
-        <v>1143</v>
-      </c>
-      <c r="P165" t="s">
+      <c r="P165" s="2">
+        <v>1.143</v>
+      </c>
+      <c r="Q165" t="s">
         <v>235</v>
       </c>
-      <c r="Q165" s="2">
-        <v>1000</v>
+      <c r="R165" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:18">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
+      <c r="D166" t="s">
         <v>236</v>
       </c>
-      <c r="C166">
+      <c r="E166">
         <v>675</v>
       </c>
-      <c r="D166" s="2">
-        <v>44916</v>
-      </c>
-      <c r="E166">
+      <c r="F166" s="2">
+        <v>44.915999999999997</v>
+      </c>
+      <c r="G166">
         <v>25</v>
       </c>
-      <c r="F166">
+      <c r="H166">
         <v>75</v>
       </c>
-      <c r="G166">
+      <c r="I166">
         <v>2298</v>
       </c>
-      <c r="H166">
+      <c r="J166">
         <v>6551</v>
       </c>
-      <c r="I166">
+      <c r="K166">
         <v>27</v>
       </c>
-      <c r="J166">
+      <c r="L166">
         <v>25</v>
       </c>
-      <c r="K166" s="2">
-        <v>30466</v>
-      </c>
-      <c r="L166" s="2">
-        <v>28209</v>
-      </c>
-      <c r="M166">
-        <v>0</v>
-      </c>
-      <c r="N166" t="s">
+      <c r="M166" s="2">
+        <v>30.466000000000001</v>
+      </c>
+      <c r="N166" s="2">
+        <v>28.209</v>
+      </c>
+      <c r="O166" t="s">
         <v>237</v>
       </c>
-      <c r="O166" s="2">
-        <v>1080</v>
-      </c>
-      <c r="P166" t="s">
+      <c r="P166" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="Q166" t="s">
         <v>238</v>
       </c>
-      <c r="Q166" s="2">
-        <v>1000</v>
+      <c r="R166" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:18">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
+      <c r="D167" t="s">
         <v>239</v>
       </c>
-      <c r="C167">
+      <c r="E167">
         <v>180</v>
       </c>
-      <c r="D167" s="2">
-        <v>74222</v>
-      </c>
-      <c r="E167">
+      <c r="F167" s="2">
+        <v>74.221999999999994</v>
+      </c>
+      <c r="G167">
         <v>53</v>
       </c>
-      <c r="F167">
+      <c r="H167">
         <v>90</v>
       </c>
-      <c r="G167">
+      <c r="I167">
         <v>2075</v>
       </c>
-      <c r="H167">
+      <c r="J167">
         <v>7006</v>
       </c>
-      <c r="I167">
+      <c r="K167">
         <v>15</v>
       </c>
-      <c r="J167">
+      <c r="L167">
         <v>12</v>
       </c>
-      <c r="K167" s="2">
-        <v>16926</v>
-      </c>
-      <c r="L167" s="2">
-        <v>13541</v>
-      </c>
-      <c r="M167">
-        <v>0</v>
-      </c>
-      <c r="N167" t="s">
+      <c r="M167" s="2">
+        <v>16.925999999999998</v>
+      </c>
+      <c r="N167" s="2">
+        <v>13.541</v>
+      </c>
+      <c r="O167" t="s">
         <v>240</v>
       </c>
-      <c r="O167" s="2">
-        <v>1250</v>
-      </c>
-      <c r="P167" t="s">
+      <c r="P167" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="Q167" t="s">
         <v>241</v>
       </c>
-      <c r="Q167" s="2">
-        <v>1000</v>
+      <c r="R167" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:18">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
+      <c r="D168" t="s">
         <v>242</v>
       </c>
-      <c r="C168">
+      <c r="E168">
         <v>9840</v>
       </c>
-      <c r="D168" s="2">
-        <v>39349</v>
-      </c>
-      <c r="E168">
+      <c r="F168" s="2">
+        <v>39.348999999999997</v>
+      </c>
+      <c r="G168">
         <v>5</v>
       </c>
-      <c r="F168">
+      <c r="H168">
         <v>112</v>
       </c>
-      <c r="G168">
+      <c r="I168">
         <v>1132</v>
       </c>
-      <c r="H168">
+      <c r="J168">
         <v>6971</v>
       </c>
-      <c r="I168">
+      <c r="K168">
         <v>120</v>
       </c>
-      <c r="J168">
+      <c r="L168">
         <v>82</v>
       </c>
-      <c r="K168" s="2">
-        <v>135406</v>
-      </c>
-      <c r="L168" s="2">
-        <v>92527</v>
-      </c>
-      <c r="M168">
-        <v>0</v>
-      </c>
-      <c r="N168" t="s">
+      <c r="M168" s="2">
+        <v>135.40600000000001</v>
+      </c>
+      <c r="N168" s="2">
+        <v>92.527000000000001</v>
+      </c>
+      <c r="O168" t="s">
         <v>243</v>
       </c>
-      <c r="O168" s="2">
-        <v>1463</v>
-      </c>
-      <c r="P168" t="s">
+      <c r="P168" s="2">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="Q168" t="s">
         <v>244</v>
       </c>
-      <c r="Q168" s="2">
-        <v>1000</v>
+      <c r="R168" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17250,13 +17214,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB34DC50-4625-2740-B569-BB396ABAA8D7}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>27</v>
@@ -17317,8 +17283,8 @@
       <c r="C2" s="3">
         <v>2838528</v>
       </c>
-      <c r="D2" s="5">
-        <v>72345</v>
+      <c r="D2" s="3">
+        <v>72.344999999999999</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -17338,23 +17304,23 @@
       <c r="J2" s="3">
         <v>1848</v>
       </c>
-      <c r="K2" s="5">
-        <v>2085245</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>260</v>
+      <c r="K2" s="3">
+        <v>2085.2449999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1733.19</v>
       </c>
       <c r="M2" s="3">
         <v>90</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="O2" s="5">
-        <v>1203</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>262</v>
+      <c r="N2" s="3">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.83099999999999996</v>
       </c>
       <c r="Q2" s="3">
         <v>1</v>
@@ -17365,13 +17331,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C3" s="3">
         <v>14048100</v>
       </c>
-      <c r="D3" s="5">
-        <v>75392</v>
+      <c r="D3" s="3">
+        <v>75.391999999999996</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -17391,23 +17357,23 @@
       <c r="J3" s="3">
         <v>5445</v>
       </c>
-      <c r="K3" s="5">
-        <v>6144025</v>
-      </c>
-      <c r="L3" s="5">
-        <v>2911218</v>
+      <c r="K3" s="3">
+        <v>6144.0249999999996</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2911.2179999999998</v>
       </c>
       <c r="M3" s="3">
         <v>90</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="O3" s="6">
-        <v>43771</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>265</v>
+      <c r="N3" s="3">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.47399999999999998</v>
       </c>
       <c r="Q3" s="3">
         <v>1</v>
@@ -17418,13 +17384,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C4" s="3">
         <v>12957120</v>
       </c>
-      <c r="D4" s="5">
-        <v>81934</v>
+      <c r="D4" s="3">
+        <v>81.933999999999997</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -17444,23 +17410,23 @@
       <c r="J4" s="3">
         <v>3960</v>
       </c>
-      <c r="K4" s="5">
-        <v>4468382</v>
-      </c>
-      <c r="L4" s="5">
-        <v>3692057</v>
+      <c r="K4" s="3">
+        <v>4468.3819999999996</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3692.0569999999998</v>
       </c>
       <c r="M4" s="3">
         <v>90</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="O4" s="7">
-        <v>44197</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>268</v>
+      <c r="N4" s="3">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.82599999999999996</v>
       </c>
       <c r="Q4" s="3">
         <v>1</v>

--- a/editions/4Q266/457_1926_Frg_1_a/457_1927.xlsx
+++ b/editions/4Q266/457_1926_Frg_1_a/457_1927.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Tucker-James/github/SQE-Damascus/editions/4Q266/457_1926_Frg_1_a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/External/github/SQE-Damascus/editions/4Q266/457_1926_Frg_1_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEAFF80-9445-734C-88AB-52B3F7015AC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952CFE7B-C2EA-BB4C-B687-15EF9FEC1DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="poVR+9k3zqxCx69MnAeRPS0K9MfNU+KaOqZ8DZDhFpQsVpmDIuLsEelRgvES3MBx0tToY1quBTUg5EYROKvmEQ==" workbookSaltValue="1lLk6sVdKsislgNF3oz/lw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8920" windowWidth="34440" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="10040" windowWidth="34440" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHARs" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1219,9 +1222,9 @@
   <dimension ref="A1:Y168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
+      <selection pane="bottomLeft" activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
